--- a/配置文档/地图相关/图层相关.xlsx
+++ b/配置文档/地图相关/图层相关.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655" firstSheet="1" activeTab="2"/>
+    <workbookView windowWidth="27945" windowHeight="12375" firstSheet="1"/>
   </bookViews>
   <sheets>
     <sheet name="cfg_MapImageLayer_图像层配置" sheetId="5" r:id="rId1"/>
@@ -1157,14 +1157,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1527,8 +1524,8 @@
   <sheetPr/>
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1540,302 +1537,302 @@
   </cols>
   <sheetData>
     <row r="1" ht="54" customHeight="1" spans="1:5">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="6" t="s">
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:5">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="8">
-        <v>1</v>
-      </c>
-      <c r="C2" s="8">
+      <c r="B2" s="7">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7">
         <v>2</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="7">
         <v>0</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:5">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:5">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" s="4" customFormat="1" ht="14.25" spans="1:4">
-      <c r="A5" s="4">
-        <v>1</v>
-      </c>
-      <c r="B5" s="4">
+    <row r="5" s="3" customFormat="1" ht="14.25" spans="1:4">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3">
         <v>0</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" s="4" customFormat="1" ht="14.25" spans="1:4">
-      <c r="A6" s="4">
-        <v>1</v>
-      </c>
-      <c r="B6" s="4">
-        <v>1</v>
-      </c>
-      <c r="C6" s="4" t="s">
+    <row r="6" s="3" customFormat="1" ht="14.25" spans="1:4">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" s="4" customFormat="1" ht="14.25" spans="1:4">
-      <c r="A7" s="4">
-        <v>1</v>
-      </c>
-      <c r="B7" s="4">
+    <row r="7" s="3" customFormat="1" ht="14.25" spans="1:4">
+      <c r="A7" s="3">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3">
         <v>2</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" s="4" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A8" s="4">
-        <v>1</v>
-      </c>
-      <c r="B8" s="4">
+    <row r="8" s="3" customFormat="1" ht="14.25" spans="1:3">
+      <c r="A8" s="3">
+        <v>1</v>
+      </c>
+      <c r="B8" s="3">
         <v>3</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" s="4" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A9" s="4">
-        <v>1</v>
-      </c>
-      <c r="B9" s="4">
+    <row r="9" s="3" customFormat="1" ht="14.25" spans="1:3">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
+      <c r="B9" s="3">
         <v>4</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" s="4" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A10" s="4">
-        <v>1</v>
-      </c>
-      <c r="B10" s="4">
+    <row r="10" s="3" customFormat="1" ht="14.25" spans="1:3">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3">
         <v>5</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" s="4" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A11" s="4">
-        <v>1</v>
-      </c>
-      <c r="B11" s="4">
+    <row r="11" s="3" customFormat="1" ht="14.25" spans="1:3">
+      <c r="A11" s="3">
+        <v>1</v>
+      </c>
+      <c r="B11" s="3">
         <v>6</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" s="4" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A12" s="4">
-        <v>1</v>
-      </c>
-      <c r="B12" s="4">
+    <row r="12" s="3" customFormat="1" ht="14.25" spans="1:3">
+      <c r="A12" s="3">
+        <v>1</v>
+      </c>
+      <c r="B12" s="3">
         <v>7</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="13" s="4" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A13" s="4">
-        <v>1</v>
-      </c>
-      <c r="B13" s="4">
+    <row r="13" s="3" customFormat="1" ht="14.25" spans="1:3">
+      <c r="A13" s="3">
+        <v>1</v>
+      </c>
+      <c r="B13" s="3">
         <v>8</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" s="4" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A14" s="4">
-        <v>1</v>
-      </c>
-      <c r="B14" s="4">
+    <row r="14" s="3" customFormat="1" ht="14.25" spans="1:3">
+      <c r="A14" s="3">
+        <v>1</v>
+      </c>
+      <c r="B14" s="3">
         <v>9</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" s="4" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A15" s="4">
-        <v>1</v>
-      </c>
-      <c r="B15" s="4">
+    <row r="15" s="3" customFormat="1" ht="14.25" spans="1:3">
+      <c r="A15" s="3">
+        <v>1</v>
+      </c>
+      <c r="B15" s="3">
         <v>10</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" s="4" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A16" s="4">
-        <v>1</v>
-      </c>
-      <c r="B16" s="4">
+    <row r="16" s="3" customFormat="1" ht="14.25" spans="1:3">
+      <c r="A16" s="3">
+        <v>1</v>
+      </c>
+      <c r="B16" s="3">
         <v>11</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="17" s="4" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A17" s="4">
-        <v>1</v>
-      </c>
-      <c r="B17" s="4">
+    <row r="17" s="3" customFormat="1" ht="14.25" spans="1:3">
+      <c r="A17" s="3">
+        <v>1</v>
+      </c>
+      <c r="B17" s="3">
         <v>12</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="18" s="4" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A18" s="4">
-        <v>1</v>
-      </c>
-      <c r="B18" s="4">
+    <row r="18" s="3" customFormat="1" ht="14.25" spans="1:3">
+      <c r="A18" s="3">
+        <v>1</v>
+      </c>
+      <c r="B18" s="3">
         <v>13</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="19" s="4" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A19" s="4">
-        <v>1</v>
-      </c>
-      <c r="B19" s="4">
+    <row r="19" s="3" customFormat="1" ht="14.25" spans="1:3">
+      <c r="A19" s="3">
+        <v>1</v>
+      </c>
+      <c r="B19" s="3">
         <v>14</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" s="4" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A20" s="4">
-        <v>1</v>
-      </c>
-      <c r="B20" s="4">
+    <row r="20" s="3" customFormat="1" ht="14.25" spans="1:3">
+      <c r="A20" s="3">
+        <v>1</v>
+      </c>
+      <c r="B20" s="3">
         <v>15</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" s="4" customFormat="1" ht="14.25" spans="1:4">
-      <c r="A21" s="4">
-        <v>1</v>
-      </c>
-      <c r="B21" s="4">
+    <row r="21" s="3" customFormat="1" ht="14.25" spans="1:4">
+      <c r="A21" s="3">
+        <v>1</v>
+      </c>
+      <c r="B21" s="3">
         <v>16</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="22" s="4" customFormat="1" ht="14.25" spans="1:4">
-      <c r="A22" s="4">
-        <v>1</v>
-      </c>
-      <c r="B22" s="4">
+    <row r="22" s="3" customFormat="1" ht="14.25" spans="1:4">
+      <c r="A22" s="3">
+        <v>1</v>
+      </c>
+      <c r="B22" s="3">
         <v>17</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" s="4" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A23" s="4">
-        <v>1</v>
-      </c>
-      <c r="B23" s="4">
+    <row r="23" s="3" customFormat="1" ht="14.25" spans="1:3">
+      <c r="A23" s="3">
+        <v>1</v>
+      </c>
+      <c r="B23" s="3">
         <v>18</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="24" s="4" customFormat="1" ht="14.25"/>
-    <row r="25" s="4" customFormat="1" ht="14.25"/>
-    <row r="26" s="4" customFormat="1" ht="14.25"/>
-    <row r="27" s="4" customFormat="1" ht="14.25"/>
-    <row r="28" s="4" customFormat="1" ht="14.25"/>
+    <row r="24" s="3" customFormat="1" ht="14.25"/>
+    <row r="25" s="3" customFormat="1" ht="14.25"/>
+    <row r="26" s="3" customFormat="1" ht="14.25"/>
+    <row r="27" s="3" customFormat="1" ht="14.25"/>
+    <row r="28" s="3" customFormat="1" ht="14.25"/>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:E4">
@@ -1861,188 +1858,188 @@
     <col min="1" max="1" width="43.375" customWidth="1"/>
     <col min="2" max="2" width="44.85" customWidth="1"/>
     <col min="3" max="3" width="27.125" customWidth="1"/>
-    <col min="4" max="4" width="53.8166666666667" style="13" customWidth="1"/>
+    <col min="4" max="4" width="53.8166666666667" style="12" customWidth="1"/>
     <col min="5" max="5" width="29.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="54" customHeight="1" spans="1:5">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:5">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="8">
-        <v>1</v>
-      </c>
-      <c r="C2" s="8">
+      <c r="B2" s="7">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7">
         <v>2</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="7">
         <v>0</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:5">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:5">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" s="4" customFormat="1" ht="15" customHeight="1" spans="1:4">
-      <c r="A5" s="4">
-        <v>1</v>
-      </c>
-      <c r="B5" s="4">
+    <row r="5" s="3" customFormat="1" ht="15" customHeight="1" spans="1:4">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3">
         <v>0</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" s="4" customFormat="1" ht="15" customHeight="1" spans="1:4">
-      <c r="A6" s="4">
-        <v>1</v>
-      </c>
-      <c r="B6" s="4">
-        <v>1</v>
-      </c>
-      <c r="C6" s="4" t="s">
+    <row r="6" s="3" customFormat="1" ht="15" customHeight="1" spans="1:4">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" s="4" customFormat="1" ht="16" customHeight="1" spans="1:4">
-      <c r="A7" s="4">
-        <v>1</v>
-      </c>
-      <c r="B7" s="4">
+    <row r="7" s="3" customFormat="1" ht="16" customHeight="1" spans="1:4">
+      <c r="A7" s="3">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3">
         <v>2</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="9" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="8" s="11" customFormat="1" ht="17" customHeight="1" spans="1:5">
-      <c r="A8" s="4">
-        <v>1</v>
-      </c>
-      <c r="B8" s="4">
+    <row r="8" s="10" customFormat="1" ht="17" customHeight="1" spans="1:5">
+      <c r="A8" s="3">
+        <v>1</v>
+      </c>
+      <c r="B8" s="3">
         <v>3</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" s="11" customFormat="1" ht="17" customHeight="1" spans="1:4">
-      <c r="A9" s="4">
-        <v>1</v>
-      </c>
-      <c r="B9" s="4">
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" s="10" customFormat="1" ht="17" customHeight="1" spans="1:4">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
+      <c r="B9" s="3">
         <v>4</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="9" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="10" s="4" customFormat="1" ht="16" customHeight="1" spans="1:4">
-      <c r="A10" s="4">
-        <v>1</v>
-      </c>
-      <c r="B10" s="4">
+    <row r="10" s="3" customFormat="1" ht="16" customHeight="1" spans="1:4">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3">
         <v>5</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="9" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="11" s="4" customFormat="1" ht="16" customHeight="1" spans="1:4">
-      <c r="A11" s="4">
-        <v>1</v>
-      </c>
-      <c r="B11" s="4">
+    <row r="11" s="3" customFormat="1" ht="16" customHeight="1" spans="1:4">
+      <c r="A11" s="3">
+        <v>1</v>
+      </c>
+      <c r="B11" s="3">
         <v>6</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="9" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="12" s="12" customFormat="1" spans="1:4">
-      <c r="A12" s="12">
-        <v>1</v>
-      </c>
-      <c r="B12" s="12">
+    <row r="12" s="11" customFormat="1" spans="1:4">
+      <c r="A12" s="11">
+        <v>1</v>
+      </c>
+      <c r="B12" s="11">
         <v>7</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="13" t="s">
+      <c r="D12" s="12" t="s">
         <v>56</v>
       </c>
     </row>
@@ -2062,7 +2059,7 @@
   <sheetPr/>
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -2076,84 +2073,84 @@
   </cols>
   <sheetData>
     <row r="1" ht="54" customHeight="1" spans="1:5">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" ht="14.25" spans="1:5">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="8">
-        <v>1</v>
-      </c>
-      <c r="C2" s="8">
+      <c r="B2" s="7">
+        <v>1</v>
+      </c>
+      <c r="C2" s="7">
         <v>2</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="7">
         <v>0</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:5">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" ht="14.25" spans="1:5">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" s="4" customFormat="1" ht="15" customHeight="1" spans="1:4">
-      <c r="A5" s="4">
-        <v>1</v>
-      </c>
-      <c r="B5" s="4">
+    <row r="5" s="3" customFormat="1" ht="15" customHeight="1" spans="1:4">
+      <c r="A5" s="3">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3">
         <v>0</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>61</v>
       </c>
     </row>
@@ -2181,7 +2178,7 @@
   <cols>
     <col min="1" max="2" width="13.75" customWidth="1"/>
     <col min="3" max="3" width="10.375" customWidth="1"/>
-    <col min="4" max="4" width="129.375" customWidth="1"/>
+    <col min="4" max="4" width="79.9166666666667" customWidth="1"/>
     <col min="5" max="5" width="28.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2728,19 +2725,19 @@
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="3">
+      <c r="A38" s="2">
         <v>37</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="D38" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="E38" s="2" t="s">
         <v>154</v>
       </c>
     </row>

--- a/配置文档/地图相关/图层相关.xlsx
+++ b/配置文档/地图相关/图层相关.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" firstSheet="1"/>
+    <workbookView windowHeight="17655" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="cfg_MapImageLayer_图像层配置" sheetId="5" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="159">
   <si>
     <t>用于配置图像层级数据
 不能修改</t>
@@ -97,77 +97,79 @@
     <t>用于绘制背景</t>
   </si>
   <si>
-    <t>地板层1</t>
+    <t>逻辑地块</t>
+  </si>
+  <si>
+    <t>用于单位参考寻路</t>
+  </si>
+  <si>
+    <t>地块层</t>
   </si>
   <si>
     <t>用于绘制地图底层地形</t>
   </si>
   <si>
-    <t>地板层2</t>
-  </si>
-  <si>
-    <t>用于绘制地上装饰</t>
-  </si>
-  <si>
-    <t>地板层3</t>
-  </si>
-  <si>
-    <t>缝隙层1</t>
-  </si>
-  <si>
-    <t>缝隙层2</t>
-  </si>
-  <si>
-    <t>缝隙层3</t>
-  </si>
-  <si>
-    <t>实体层1</t>
-  </si>
-  <si>
-    <t>实体层2</t>
-  </si>
-  <si>
-    <t>实体层3</t>
-  </si>
-  <si>
-    <t>实体层4</t>
-  </si>
-  <si>
-    <t>实体层5</t>
-  </si>
-  <si>
-    <t>实体层6</t>
-  </si>
-  <si>
-    <t>缝隙层4</t>
-  </si>
-  <si>
-    <t>缝隙层5</t>
-  </si>
-  <si>
-    <t>缝隙层6</t>
-  </si>
-  <si>
-    <t>天空层1</t>
-  </si>
-  <si>
-    <t>地上阴影</t>
-  </si>
-  <si>
-    <t>天空层2</t>
-  </si>
-  <si>
-    <t>云层或雾气等</t>
-  </si>
-  <si>
-    <t>天空层3</t>
+    <t>地块效果层</t>
+  </si>
+  <si>
+    <t>用于绘制关于地块表现的层，例如做旧，破损等</t>
+  </si>
+  <si>
+    <t>悬崖墙壁层</t>
+  </si>
+  <si>
+    <t>绘制悬崖和峭壁</t>
+  </si>
+  <si>
+    <t>装饰一层</t>
+  </si>
+  <si>
+    <t>装饰</t>
+  </si>
+  <si>
+    <t>装饰二层</t>
+  </si>
+  <si>
+    <t>装饰三层</t>
+  </si>
+  <si>
+    <t>地图资源</t>
+  </si>
+  <si>
+    <t>绘制地图资源</t>
+  </si>
+  <si>
+    <t>场景阴影</t>
+  </si>
+  <si>
+    <t>绘制阴影</t>
+  </si>
+  <si>
+    <t>高层装饰一层</t>
+  </si>
+  <si>
+    <t>高于场景阴影装饰</t>
+  </si>
+  <si>
+    <t>高层装饰二层</t>
+  </si>
+  <si>
+    <t>高层装饰三层</t>
+  </si>
+  <si>
+    <t>实体</t>
+  </si>
+  <si>
+    <t>放置实体</t>
   </si>
   <si>
     <t>不能修改</t>
   </si>
   <si>
     <t>物理层id
-取值1-32</t>
+取值1-32
+24及以上为建造系统使用的特殊层（不导出）
+拥有24及以上层的建筑或单位在地图上某位置时，对应位置不可建造</t>
   </si>
   <si>
     <t>PhysicsLayerId</t>
@@ -176,39 +178,21 @@
     <t>陆地墙壁层</t>
   </si>
   <si>
-    <t>陆地墙壁层-可用于陆地单位寻路</t>
-  </si>
-  <si>
     <t>陆地单位层</t>
   </si>
   <si>
-    <t>陆地单位层，陆地单位碰撞体，可用于陆地单位寻路</t>
-  </si>
-  <si>
     <t>陆地建筑层</t>
   </si>
   <si>
-    <t>空中建筑层，建筑碰撞体，可用于陆地单位寻路</t>
-  </si>
-  <si>
     <t>空中墙壁层</t>
   </si>
   <si>
-    <t>空中墙壁层，可用于空中单位寻路</t>
-  </si>
-  <si>
     <t>空中单位层</t>
   </si>
   <si>
-    <t>空中单位层，空中单位碰撞体，可用于空中单位寻路</t>
-  </si>
-  <si>
     <t>空中建筑层</t>
   </si>
   <si>
-    <t>空中建筑层，建筑碰撞体，可用于空中单位寻路</t>
-  </si>
-  <si>
     <t>子弹层</t>
   </si>
   <si>
@@ -219,6 +203,18 @@
   </si>
   <si>
     <t>护盾层，护盾碰撞体</t>
+  </si>
+  <si>
+    <t>建筑占地</t>
+  </si>
+  <si>
+    <t>炮塔占地</t>
+  </si>
+  <si>
+    <t>单位占地</t>
+  </si>
+  <si>
+    <t>无人机占地</t>
   </si>
   <si>
     <t>该表用于备注地图导航层数据
@@ -236,6 +232,24 @@
   </si>
   <si>
     <t>地图导航层-可用于陆地单位寻路</t>
+  </si>
+  <si>
+    <t>爬行地图导航层</t>
+  </si>
+  <si>
+    <t>地图导航层-可用于爬行单位寻路</t>
+  </si>
+  <si>
+    <t>悬浮地图导航层</t>
+  </si>
+  <si>
+    <t>地图导航层-可用于悬浮单位寻路</t>
+  </si>
+  <si>
+    <t>飞行单位地图导航层</t>
+  </si>
+  <si>
+    <t>地图导航层-可用于飞行单位寻路</t>
   </si>
   <si>
     <t>数据类型编号</t>
@@ -1157,7 +1171,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1196,6 +1210,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1522,10 +1539,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1646,7 +1663,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" s="3" customFormat="1" ht="14.25" spans="1:3">
+    <row r="8" s="3" customFormat="1" ht="28.5" spans="1:4">
       <c r="A8" s="3">
         <v>1</v>
       </c>
@@ -1656,8 +1673,11 @@
       <c r="C8" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" s="3" customFormat="1" ht="14.25" spans="1:3">
+      <c r="D8" s="13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" s="3" customFormat="1" ht="14.25" spans="1:4">
       <c r="A9" s="3">
         <v>1</v>
       </c>
@@ -1665,10 +1685,13 @@
         <v>4</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" s="3" customFormat="1" ht="14.25" spans="1:3">
+        <v>22</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" s="3" customFormat="1" ht="14.25" spans="1:4">
       <c r="A10" s="3">
         <v>1</v>
       </c>
@@ -1676,10 +1699,13 @@
         <v>5</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" s="3" customFormat="1" ht="14.25" spans="1:3">
+        <v>24</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" s="3" customFormat="1" ht="14.25" spans="1:4">
       <c r="A11" s="3">
         <v>1</v>
       </c>
@@ -1687,10 +1713,13 @@
         <v>6</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" s="3" customFormat="1" ht="14.25" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" s="3" customFormat="1" ht="14.25" spans="1:4">
       <c r="A12" s="3">
         <v>1</v>
       </c>
@@ -1698,10 +1727,13 @@
         <v>7</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" s="3" customFormat="1" ht="14.25" spans="1:3">
+        <v>27</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" s="3" customFormat="1" ht="14.25" spans="1:4">
       <c r="A13" s="3">
         <v>1</v>
       </c>
@@ -1709,10 +1741,13 @@
         <v>8</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" s="3" customFormat="1" ht="14.25" spans="1:3">
+        <v>28</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" s="3" customFormat="1" ht="14.25" spans="1:4">
       <c r="A14" s="3">
         <v>1</v>
       </c>
@@ -1720,10 +1755,13 @@
         <v>9</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" s="3" customFormat="1" ht="14.25" spans="1:3">
+        <v>30</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" s="3" customFormat="1" ht="14.25" spans="1:4">
       <c r="A15" s="3">
         <v>1</v>
       </c>
@@ -1731,10 +1769,13 @@
         <v>10</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" s="3" customFormat="1" ht="14.25" spans="1:3">
+        <v>32</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" s="3" customFormat="1" ht="14.25" spans="1:4">
       <c r="A16" s="3">
         <v>1</v>
       </c>
@@ -1742,10 +1783,13 @@
         <v>11</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" s="3" customFormat="1" ht="14.25" spans="1:3">
+        <v>34</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" s="3" customFormat="1" ht="14.25" spans="1:4">
       <c r="A17" s="3">
         <v>1</v>
       </c>
@@ -1753,10 +1797,13 @@
         <v>12</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" s="3" customFormat="1" ht="14.25" spans="1:3">
+        <v>35</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" s="3" customFormat="1" ht="14.25" spans="1:4">
       <c r="A18" s="3">
         <v>1</v>
       </c>
@@ -1764,75 +1811,38 @@
         <v>13</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="19" s="3" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A19" s="3">
-        <v>1</v>
-      </c>
-      <c r="B19" s="3">
-        <v>14</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" s="3" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A20" s="3">
-        <v>1</v>
-      </c>
-      <c r="B20" s="3">
-        <v>15</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" s="3" customFormat="1" ht="14.25" spans="1:4">
-      <c r="A21" s="3">
-        <v>1</v>
-      </c>
-      <c r="B21" s="3">
-        <v>16</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" s="3" customFormat="1" ht="14.25" spans="1:4">
-      <c r="A22" s="3">
-        <v>1</v>
-      </c>
-      <c r="B22" s="3">
-        <v>17</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D22" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="23" s="3" customFormat="1" ht="14.25" spans="1:3">
-      <c r="A23" s="3">
-        <v>1</v>
-      </c>
-      <c r="B23" s="3">
-        <v>18</v>
-      </c>
-      <c r="C23" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>37</v>
       </c>
     </row>
+    <row r="19" s="3" customFormat="1" ht="14.25"/>
+    <row r="20" s="3" customFormat="1" ht="14.25"/>
+    <row r="21" s="3" customFormat="1" ht="14.25"/>
+    <row r="22" s="3" customFormat="1" ht="14.25"/>
+    <row r="23" s="3" customFormat="1" ht="14.25"/>
     <row r="24" s="3" customFormat="1" ht="14.25"/>
     <row r="25" s="3" customFormat="1" ht="14.25"/>
     <row r="26" s="3" customFormat="1" ht="14.25"/>
     <row r="27" s="3" customFormat="1" ht="14.25"/>
     <row r="28" s="3" customFormat="1" ht="14.25"/>
+    <row r="29" ht="14.25" spans="3:4">
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30" ht="14.25" spans="3:4">
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+    </row>
+    <row r="31" ht="14.25" spans="3:4">
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" ht="14.25" spans="3:4">
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+    </row>
   </sheetData>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:E4">
@@ -1847,10 +1857,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1862,7 +1872,7 @@
     <col min="5" max="5" width="29.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="54" customHeight="1" spans="1:5">
+    <row r="1" ht="86" customHeight="1" spans="1:5">
       <c r="A1" s="4" t="s">
         <v>38</v>
       </c>
@@ -1940,9 +1950,7 @@
       <c r="C5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>42</v>
-      </c>
+      <c r="D5" s="9"/>
     </row>
     <row r="6" s="3" customFormat="1" ht="15" customHeight="1" spans="1:4">
       <c r="A6" s="3">
@@ -1952,11 +1960,9 @@
         <v>1</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>44</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="D6" s="9"/>
     </row>
     <row r="7" s="3" customFormat="1" ht="16" customHeight="1" spans="1:4">
       <c r="A7" s="3">
@@ -1966,11 +1972,9 @@
         <v>2</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>46</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="D7" s="9"/>
     </row>
     <row r="8" s="10" customFormat="1" ht="17" customHeight="1" spans="1:5">
       <c r="A8" s="3">
@@ -1980,11 +1984,9 @@
         <v>3</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>48</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="D8" s="9"/>
       <c r="E8" s="3"/>
     </row>
     <row r="9" s="10" customFormat="1" ht="17" customHeight="1" spans="1:4">
@@ -1995,11 +1997,9 @@
         <v>4</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>50</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="D9" s="9"/>
     </row>
     <row r="10" s="3" customFormat="1" ht="16" customHeight="1" spans="1:4">
       <c r="A10" s="3">
@@ -2009,11 +2009,9 @@
         <v>5</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>52</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="D10" s="9"/>
     </row>
     <row r="11" s="3" customFormat="1" ht="16" customHeight="1" spans="1:4">
       <c r="A11" s="3">
@@ -2023,10 +2021,10 @@
         <v>6</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="12" s="11" customFormat="1" spans="1:4">
@@ -2037,10 +2035,48 @@
         <v>7</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11">
+        <v>24</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="12"/>
+      <c r="E16" s="11"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11">
+        <v>25</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11">
+        <v>26</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11">
+        <v>27</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -2057,13 +2093,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="23.875" customWidth="1"/>
     <col min="2" max="2" width="44.85" customWidth="1"/>
@@ -2074,10 +2110,10 @@
   <sheetData>
     <row r="1" ht="54" customHeight="1" spans="1:5">
       <c r="A1" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>2</v>
@@ -2111,7 +2147,7 @@
         <v>6</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>8</v>
@@ -2145,13 +2181,55 @@
         <v>1</v>
       </c>
       <c r="B5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" s="3" customFormat="1" ht="15" customHeight="1" spans="1:4">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D6" s="9" t="s">
         <v>61</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25" spans="1:4">
+      <c r="A7" s="3">
+        <v>1</v>
+      </c>
+      <c r="B7" s="3">
+        <v>3</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" ht="14.25" spans="1:4">
+      <c r="A8" s="3">
+        <v>1</v>
+      </c>
+      <c r="B8" s="3">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -2171,7 +2249,7 @@
   <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C74" sqref="C74"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2184,19 +2262,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2204,16 +2282,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2221,16 +2299,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2241,13 +2319,13 @@
         <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2255,16 +2333,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2272,16 +2350,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2293,10 +2371,10 @@
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2304,16 +2382,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2321,16 +2399,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2338,16 +2416,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2355,16 +2433,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2372,16 +2450,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2389,13 +2467,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2403,10 +2481,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2414,10 +2492,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2425,10 +2503,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2436,10 +2514,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2447,10 +2525,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2458,10 +2536,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2469,10 +2547,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2480,10 +2558,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2491,10 +2569,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2502,10 +2580,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2513,10 +2591,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2524,10 +2602,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2535,16 +2613,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -2552,16 +2630,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2569,16 +2647,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2586,16 +2664,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2603,13 +2681,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2617,16 +2695,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2634,16 +2712,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2651,16 +2729,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2668,16 +2746,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2685,16 +2763,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2702,14 +2780,14 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2717,11 +2795,11 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2729,16 +2807,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/配置文档/地图相关/图层相关.xlsx
+++ b/配置文档/地图相关/图层相关.xlsx
@@ -1,21 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655" activeTab="1"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="cfg_MapImageLayer_图像层配置" sheetId="5" r:id="rId1"/>
-    <sheet name="cfg_MapPhysicsLayer_物理层配置" sheetId="6" r:id="rId2"/>
-    <sheet name="cfg_MapNavigate_地图导航层" sheetId="7" r:id="rId3"/>
-    <sheet name="数据类型" sheetId="4" r:id="rId4"/>
+    <sheet name="数据类型" sheetId="4" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="ExternalData_1" localSheetId="3">数据类型!#REF!</definedName>
-    <definedName name="数据类型_Sheet1" localSheetId="3">数据类型!#REF!</definedName>
-    <definedName name="连接" localSheetId="3">数据类型!$A$1:$E$38</definedName>
+    <definedName name="ExternalData_1" localSheetId="1">数据类型!#REF!</definedName>
+    <definedName name="数据类型_Sheet1" localSheetId="1">数据类型!#REF!</definedName>
+    <definedName name="连接" localSheetId="1">数据类型!$A$1:$E$38</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="127">
   <si>
     <t>用于配置图像层级数据
 不能修改</t>
@@ -91,58 +89,52 @@
     <t>STR</t>
   </si>
   <si>
-    <t>背景</t>
-  </si>
-  <si>
-    <t>用于绘制背景</t>
-  </si>
-  <si>
-    <t>逻辑地块</t>
+    <t>逻辑</t>
   </si>
   <si>
     <t>用于单位参考寻路</t>
   </si>
   <si>
-    <t>地块层</t>
-  </si>
-  <si>
-    <t>用于绘制地图底层地形</t>
-  </si>
-  <si>
-    <t>地块效果层</t>
-  </si>
-  <si>
-    <t>用于绘制关于地块表现的层，例如做旧，破损等</t>
-  </si>
-  <si>
-    <t>悬崖墙壁层</t>
+    <t>悬崖</t>
+  </si>
+  <si>
+    <t>地板</t>
+  </si>
+  <si>
+    <t>指示</t>
+  </si>
+  <si>
+    <t>UI，资源</t>
+  </si>
+  <si>
+    <t>墙壁</t>
+  </si>
+  <si>
+    <t>装饰</t>
+  </si>
+  <si>
+    <t>装饰一层</t>
+  </si>
+  <si>
+    <t>装饰二层</t>
+  </si>
+  <si>
+    <t>装饰三层</t>
+  </si>
+  <si>
+    <t>悬崖墙壁阴影</t>
+  </si>
+  <si>
+    <t>悬崖墙壁层一层</t>
   </si>
   <si>
     <t>绘制悬崖和峭壁</t>
   </si>
   <si>
-    <t>装饰一层</t>
-  </si>
-  <si>
-    <t>装饰</t>
-  </si>
-  <si>
-    <t>装饰二层</t>
-  </si>
-  <si>
-    <t>装饰三层</t>
-  </si>
-  <si>
-    <t>地图资源</t>
-  </si>
-  <si>
-    <t>绘制地图资源</t>
-  </si>
-  <si>
-    <t>场景阴影</t>
-  </si>
-  <si>
-    <t>绘制阴影</t>
+    <t>悬崖墙壁阴影二层</t>
+  </si>
+  <si>
+    <t>悬崖墙壁层二层</t>
   </si>
   <si>
     <t>高层装饰一层</t>
@@ -155,101 +147,6 @@
   </si>
   <si>
     <t>高层装饰三层</t>
-  </si>
-  <si>
-    <t>实体</t>
-  </si>
-  <si>
-    <t>放置实体</t>
-  </si>
-  <si>
-    <t>不能修改</t>
-  </si>
-  <si>
-    <t>物理层id
-取值1-32
-24及以上为建造系统使用的特殊层（不导出）
-拥有24及以上层的建筑或单位在地图上某位置时，对应位置不可建造</t>
-  </si>
-  <si>
-    <t>PhysicsLayerId</t>
-  </si>
-  <si>
-    <t>陆地墙壁层</t>
-  </si>
-  <si>
-    <t>陆地单位层</t>
-  </si>
-  <si>
-    <t>陆地建筑层</t>
-  </si>
-  <si>
-    <t>空中墙壁层</t>
-  </si>
-  <si>
-    <t>空中单位层</t>
-  </si>
-  <si>
-    <t>空中建筑层</t>
-  </si>
-  <si>
-    <t>子弹层</t>
-  </si>
-  <si>
-    <t>子弹层，子弹碰撞体</t>
-  </si>
-  <si>
-    <t>护盾层</t>
-  </si>
-  <si>
-    <t>护盾层，护盾碰撞体</t>
-  </si>
-  <si>
-    <t>建筑占地</t>
-  </si>
-  <si>
-    <t>炮塔占地</t>
-  </si>
-  <si>
-    <t>单位占地</t>
-  </si>
-  <si>
-    <t>无人机占地</t>
-  </si>
-  <si>
-    <t>该表用于备注地图导航层数据
-不能修改</t>
-  </si>
-  <si>
-    <t>导航层id
-取值1-32</t>
-  </si>
-  <si>
-    <t>NavigateLayerId</t>
-  </si>
-  <si>
-    <t>地图导航层</t>
-  </si>
-  <si>
-    <t>地图导航层-可用于陆地单位寻路</t>
-  </si>
-  <si>
-    <t>爬行地图导航层</t>
-  </si>
-  <si>
-    <t>地图导航层-可用于爬行单位寻路</t>
-  </si>
-  <si>
-    <t>悬浮地图导航层</t>
-  </si>
-  <si>
-    <t>地图导航层-可用于悬浮单位寻路</t>
-  </si>
-  <si>
-    <t>飞行单位地图导航层</t>
-  </si>
-  <si>
-    <t>地图导航层-可用于飞行单位寻路</t>
   </si>
   <si>
     <t>数据类型编号</t>
@@ -1171,7 +1068,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1198,18 +1095,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1539,10 +1424,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1626,7 +1511,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>14</v>
@@ -1640,13 +1525,13 @@
         <v>1</v>
       </c>
       <c r="B6" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>16</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" s="3" customFormat="1" ht="14.25" spans="1:4">
@@ -1654,27 +1539,27 @@
         <v>1</v>
       </c>
       <c r="B7" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" s="3" customFormat="1" ht="28.5" spans="1:4">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" s="3" customFormat="1" ht="14.25" spans="1:4">
       <c r="A8" s="3">
         <v>1</v>
       </c>
       <c r="B8" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="9" s="3" customFormat="1" ht="14.25" spans="1:4">
@@ -1682,13 +1567,13 @@
         <v>1</v>
       </c>
       <c r="B9" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" s="3" customFormat="1" ht="14.25" spans="1:4">
@@ -1696,129 +1581,155 @@
         <v>1</v>
       </c>
       <c r="B10" s="3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" s="3" customFormat="1" ht="14.25" spans="1:4">
       <c r="A11" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B11" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" s="3" customFormat="1" ht="14.25" spans="1:4">
       <c r="A12" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B12" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" s="3" customFormat="1" ht="14.25" spans="1:4">
       <c r="A13" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B13" s="3">
+        <v>7</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25" spans="1:4">
+      <c r="A14" s="3">
+        <v>0</v>
+      </c>
+      <c r="B14" s="3">
         <v>8</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25" spans="1:4">
+      <c r="A15" s="3">
+        <v>0</v>
+      </c>
+      <c r="B15" s="3">
+        <v>9</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25" spans="1:4">
+      <c r="A16" s="3">
+        <v>0</v>
+      </c>
+      <c r="B16" s="3">
+        <v>10</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D16" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25" spans="1:4">
+      <c r="A17" s="3">
+        <v>0</v>
+      </c>
+      <c r="B17" s="3">
+        <v>11</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="14" s="3" customFormat="1" ht="14.25" spans="1:4">
-      <c r="A14" s="3">
-        <v>1</v>
-      </c>
-      <c r="B14" s="3">
-        <v>9</v>
-      </c>
-      <c r="C14" s="3" t="s">
+      <c r="D17" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25" spans="1:4">
+      <c r="A18" s="3">
+        <v>0</v>
+      </c>
+      <c r="B18" s="3">
+        <v>12</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" s="3" customFormat="1" ht="14.25" spans="1:4">
-      <c r="A15" s="3">
-        <v>1</v>
-      </c>
-      <c r="B15" s="3">
-        <v>10</v>
-      </c>
-      <c r="C15" s="3" t="s">
+    <row r="19" ht="14.25" spans="1:4">
+      <c r="A19" s="3">
+        <v>0</v>
+      </c>
+      <c r="B19" s="3">
+        <v>13</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D19" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" s="3" customFormat="1" ht="14.25" spans="1:4">
+      <c r="A20" s="3">
+        <v>0</v>
+      </c>
+      <c r="B20" s="3">
+        <v>14</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="16" s="3" customFormat="1" ht="14.25" spans="1:4">
-      <c r="A16" s="3">
-        <v>1</v>
-      </c>
-      <c r="B16" s="3">
-        <v>11</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="17" s="3" customFormat="1" ht="14.25" spans="1:4">
-      <c r="A17" s="3">
-        <v>1</v>
-      </c>
-      <c r="B17" s="3">
-        <v>12</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" s="3" customFormat="1" ht="14.25" spans="1:4">
-      <c r="A18" s="3">
-        <v>1</v>
-      </c>
-      <c r="B18" s="3">
-        <v>13</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" s="3" customFormat="1" ht="14.25"/>
-    <row r="20" s="3" customFormat="1" ht="14.25"/>
+      <c r="D20" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
     <row r="21" s="3" customFormat="1" ht="14.25"/>
     <row r="22" s="3" customFormat="1" ht="14.25"/>
     <row r="23" s="3" customFormat="1" ht="14.25"/>
@@ -1827,10 +1738,7 @@
     <row r="26" s="3" customFormat="1" ht="14.25"/>
     <row r="27" s="3" customFormat="1" ht="14.25"/>
     <row r="28" s="3" customFormat="1" ht="14.25"/>
-    <row r="29" ht="14.25" spans="3:4">
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-    </row>
+    <row r="29" s="3" customFormat="1" ht="14.25"/>
     <row r="30" ht="14.25" spans="3:4">
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
@@ -1842,6 +1750,10 @@
     <row r="32" ht="14.25" spans="3:4">
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
+    </row>
+    <row r="33" ht="14.25" spans="3:4">
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -1857,398 +1769,9 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E19"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
-  <cols>
-    <col min="1" max="1" width="43.375" customWidth="1"/>
-    <col min="2" max="2" width="44.85" customWidth="1"/>
-    <col min="3" max="3" width="27.125" customWidth="1"/>
-    <col min="4" max="4" width="53.8166666666667" style="12" customWidth="1"/>
-    <col min="5" max="5" width="29.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="86" customHeight="1" spans="1:5">
-      <c r="A1" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" ht="14.25" spans="1:5">
-      <c r="A2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="7">
-        <v>1</v>
-      </c>
-      <c r="C2" s="7">
-        <v>2</v>
-      </c>
-      <c r="D2" s="7">
-        <v>0</v>
-      </c>
-      <c r="E2" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" ht="14.25" spans="1:5">
-      <c r="A3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25" spans="1:5">
-      <c r="A4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" s="3" customFormat="1" ht="15" customHeight="1" spans="1:4">
-      <c r="A5" s="3">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" s="9"/>
-    </row>
-    <row r="6" s="3" customFormat="1" ht="15" customHeight="1" spans="1:4">
-      <c r="A6" s="3">
-        <v>1</v>
-      </c>
-      <c r="B6" s="3">
-        <v>1</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="9"/>
-    </row>
-    <row r="7" s="3" customFormat="1" ht="16" customHeight="1" spans="1:4">
-      <c r="A7" s="3">
-        <v>1</v>
-      </c>
-      <c r="B7" s="3">
-        <v>2</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="9"/>
-    </row>
-    <row r="8" s="10" customFormat="1" ht="17" customHeight="1" spans="1:5">
-      <c r="A8" s="3">
-        <v>1</v>
-      </c>
-      <c r="B8" s="3">
-        <v>3</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="9"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" s="10" customFormat="1" ht="17" customHeight="1" spans="1:4">
-      <c r="A9" s="3">
-        <v>1</v>
-      </c>
-      <c r="B9" s="3">
-        <v>4</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="9"/>
-    </row>
-    <row r="10" s="3" customFormat="1" ht="16" customHeight="1" spans="1:4">
-      <c r="A10" s="3">
-        <v>1</v>
-      </c>
-      <c r="B10" s="3">
-        <v>5</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="9"/>
-    </row>
-    <row r="11" s="3" customFormat="1" ht="16" customHeight="1" spans="1:4">
-      <c r="A11" s="3">
-        <v>1</v>
-      </c>
-      <c r="B11" s="3">
-        <v>6</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" s="11" customFormat="1" spans="1:4">
-      <c r="A12" s="11">
-        <v>1</v>
-      </c>
-      <c r="B12" s="11">
-        <v>7</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11">
-        <v>24</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="12"/>
-      <c r="E16" s="11"/>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11">
-        <v>25</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11">
-        <v>26</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11">
-        <v>27</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:E4">
-      <formula1>数据类型!$B$2:$B$56</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
-  <cols>
-    <col min="1" max="1" width="23.875" customWidth="1"/>
-    <col min="2" max="2" width="44.85" customWidth="1"/>
-    <col min="3" max="3" width="27.125" customWidth="1"/>
-    <col min="4" max="4" width="53.8166666666667" customWidth="1"/>
-    <col min="5" max="5" width="29.75" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="54" customHeight="1" spans="1:5">
-      <c r="A1" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" ht="14.25" spans="1:5">
-      <c r="A2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="7">
-        <v>1</v>
-      </c>
-      <c r="C2" s="7">
-        <v>2</v>
-      </c>
-      <c r="D2" s="7">
-        <v>0</v>
-      </c>
-      <c r="E2" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" ht="14.25" spans="1:5">
-      <c r="A3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" ht="14.25" spans="1:5">
-      <c r="A4" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" s="3" customFormat="1" ht="15" customHeight="1" spans="1:4">
-      <c r="A5" s="3">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" s="3" customFormat="1" ht="15" customHeight="1" spans="1:4">
-      <c r="A6" s="3">
-        <v>1</v>
-      </c>
-      <c r="B6" s="3">
-        <v>2</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" ht="14.25" spans="1:4">
-      <c r="A7" s="3">
-        <v>1</v>
-      </c>
-      <c r="B7" s="3">
-        <v>3</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" customFormat="1" ht="14.25" spans="1:4">
-      <c r="A8" s="3">
-        <v>1</v>
-      </c>
-      <c r="B8" s="3">
-        <v>4</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:E4">
-      <formula1>数据类型!$B$2:$B$56</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -2262,19 +1785,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>66</v>
+        <v>34</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>67</v>
+        <v>35</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2282,16 +1805,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2299,16 +1822,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>78</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2319,13 +1842,13 @@
         <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>80</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2333,16 +1856,16 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>81</v>
+        <v>49</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>83</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2350,16 +1873,16 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>84</v>
+        <v>52</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>85</v>
+        <v>53</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>86</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2371,10 +1894,10 @@
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>87</v>
+        <v>55</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>88</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2382,16 +1905,16 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>89</v>
+        <v>57</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>91</v>
+        <v>59</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>92</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2399,16 +1922,16 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2416,16 +1939,16 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>98</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2433,16 +1956,16 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>99</v>
+        <v>67</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>101</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2450,16 +1973,16 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>102</v>
+        <v>70</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2467,13 +1990,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2481,10 +2004,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>107</v>
+        <v>75</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -2492,10 +2015,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>109</v>
+        <v>77</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -2503,10 +2026,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>110</v>
+        <v>78</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -2514,10 +2037,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -2525,10 +2048,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -2536,10 +2059,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>113</v>
+        <v>81</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>108</v>
+        <v>76</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -2547,10 +2070,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2558,10 +2081,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -2569,10 +2092,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2580,10 +2103,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2591,10 +2114,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>118</v>
+        <v>86</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -2602,10 +2125,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>119</v>
+        <v>87</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2613,16 +2136,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>123</v>
+        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -2630,16 +2153,16 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>124</v>
+        <v>92</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -2647,16 +2170,16 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>130</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -2664,16 +2187,16 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>131</v>
+        <v>99</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>133</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2681,13 +2204,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>135</v>
+        <v>103</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -2695,16 +2218,16 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>125</v>
+        <v>93</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>139</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -2712,16 +2235,16 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>140</v>
+        <v>108</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>141</v>
+        <v>109</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>142</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -2729,16 +2252,16 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>143</v>
+        <v>111</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>144</v>
+        <v>112</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>145</v>
+        <v>113</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>144</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2746,16 +2269,16 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>146</v>
+        <v>114</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>147</v>
+        <v>115</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>148</v>
+        <v>116</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>147</v>
+        <v>115</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -2763,16 +2286,16 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>150</v>
+        <v>118</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>139</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -2780,14 +2303,14 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>151</v>
+        <v>119</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2" t="s">
-        <v>152</v>
+        <v>120</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>153</v>
+        <v>121</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -2795,11 +2318,11 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>154</v>
+        <v>122</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2" t="s">
-        <v>155</v>
+        <v>123</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -2807,16 +2330,16 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>156</v>
+        <v>124</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>90</v>
+        <v>58</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>157</v>
+        <v>125</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>158</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
